--- a/regionseng/8/infrastructure/infrastructure.xlsx
+++ b/regionseng/8/infrastructure/infrastructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -70,11 +70,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +201,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -235,6 +241,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,19 +551,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="77.5703125" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="15"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
@@ -571,8 +580,10 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5">
         <v>2011</v>
@@ -607,8 +618,14 @@
       <c r="L2" s="5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -645,8 +662,14 @@
       <c r="L3" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="10">
+        <v>100</v>
+      </c>
+      <c r="N3" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -683,8 +706,14 @@
       <c r="L4" s="11">
         <v>91.01885927669754</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1">
+      <c r="M4" s="11">
+        <v>95.014511803470597</v>
+      </c>
+      <c r="N4" s="11">
+        <v>93.878869514970347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
@@ -699,8 +728,10 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>2011</v>
@@ -735,8 +766,14 @@
       <c r="L8" s="5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14.25">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -773,8 +810,14 @@
       <c r="L9" s="12">
         <v>72.00664923023524</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="12">
+        <v>73.613726184029062</v>
+      </c>
+      <c r="N9" s="12">
+        <v>76.363829371474225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14.25">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -811,8 +854,14 @@
       <c r="L10" s="12">
         <v>24.222786270296965</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="12">
+        <v>23.404779082796139</v>
+      </c>
+      <c r="N10" s="12">
+        <v>18.887620877164103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25">
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
@@ -849,8 +898,14 @@
       <c r="L11" s="12">
         <v>2.018130369345664</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="12">
+        <v>2.7894967496887029</v>
+      </c>
+      <c r="N11" s="12">
+        <v>4.3497142417183348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -887,8 +942,14 @@
       <c r="L12" s="12">
         <v>1.7524341301221258</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="12">
+        <v>0.19199798348609431</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.39883550964334863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -925,8 +986,14 @@
       <c r="L13" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -939,8 +1006,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
